--- a/PPT/football_03.xlsx
+++ b/PPT/football_03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenxu/Work/HKJC/PPT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09F46229-4D2C-6A4F-B197-3EE191937979}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE484328-331B-2F45-8427-83A8511C1C90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6060" yWindow="10120" windowWidth="26720" windowHeight="17440" xr2:uid="{A3D4EBAE-E3B3-D24A-A772-54B6163DCCE5}"/>
   </bookViews>
@@ -494,7 +494,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -570,6 +570,12 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
